--- a/data/trans_bre/P16B97-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B97-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 0,0</t>
+          <t>-7,08; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>0,0; 2,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,55; -0,9</t>
+          <t>-8,07; -0,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 0,0</t>
+          <t>-7,08; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,74</t>
+          <t>0,0; 3,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,55; -0,9</t>
+          <t>-8,07; -0,84</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 0,0</t>
+          <t>-10,79; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 0,92</t>
+          <t>-3,65; 1,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 4,97</t>
+          <t>-2,07; 4,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 0,0</t>
+          <t>-10,79; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,94</t>
+          <t>-3,68; 1,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 5,24</t>
+          <t>-2,09; 4,9</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 0,0</t>
+          <t>-26,75; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 0,0</t>
+          <t>-26,75; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,0</t>
+          <t>-4,91; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 0,38</t>
+          <t>-2,23; 0,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 0,82</t>
+          <t>-3,46; 0,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,0</t>
+          <t>-4,91; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,39</t>
+          <t>-2,23; 0,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 0,83</t>
+          <t>-3,46; 0,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B97-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B97-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 0,0</t>
+          <t>-7,02; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,96</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,07; -0,84</t>
+          <t>-7,84; -0,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 0,0</t>
+          <t>-7,02; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,05</t>
+          <t>0,0; 2,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,07; -0,84</t>
+          <t>-7,84; -0,86</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 0,0</t>
+          <t>-12,73; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 1,02</t>
+          <t>-3,53; 1,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 4,65</t>
+          <t>-2,24; 4,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 0,0</t>
+          <t>-12,73; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 1,04</t>
+          <t>-3,54; 1,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 4,9</t>
+          <t>-2,25; 4,49</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 0,0</t>
+          <t>-25,16; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 0,0</t>
+          <t>-25,16; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,0</t>
+          <t>-5,27; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,42</t>
+          <t>-2,37; 0,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,91</t>
+          <t>-3,39; 0,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,0</t>
+          <t>-5,27; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,43</t>
+          <t>-2,38; 0,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,92</t>
+          <t>-3,39; 0,87</t>
         </is>
       </c>
     </row>
